--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5886160752362349</v>
+        <v>0.5604026478897502</v>
       </c>
       <c r="D2">
-        <v>0.5561980212228419</v>
+        <v>0.5808675041729621</v>
       </c>
       <c r="E2">
         <v>8.848177214739788</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4871263309400029</v>
+        <v>-0.4112874021182295</v>
       </c>
       <c r="D3">
-        <v>0.6262323958671168</v>
+        <v>0.6848408353172135</v>
       </c>
       <c r="E3">
         <v>8.848177214739788</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7027418334039851</v>
+        <v>0.6951750219158087</v>
       </c>
       <c r="D4">
-        <v>0.4823140713930707</v>
+        <v>0.4942235038633283</v>
       </c>
       <c r="E4">
         <v>8.848177214739788</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.770354164909646</v>
+        <v>-1.773796356016656</v>
       </c>
       <c r="D5">
-        <v>0.07684959306567585</v>
+        <v>0.08994071619129151</v>
       </c>
       <c r="E5">
         <v>8.848177214739788</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.050422941449584</v>
+        <v>-0.8062310368019869</v>
       </c>
       <c r="D6">
-        <v>0.2936748666461348</v>
+        <v>0.4287391610151932</v>
       </c>
       <c r="E6">
         <v>8.397778748819839</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1743333899701356</v>
+        <v>0.1686583835982415</v>
       </c>
       <c r="D7">
-        <v>0.8616244770507269</v>
+        <v>0.8676063775620082</v>
       </c>
       <c r="E7">
         <v>8.397778748819839</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.44031306275582</v>
+        <v>-1.99371521027555</v>
       </c>
       <c r="D8">
-        <v>0.01477733690920169</v>
+        <v>0.05872579719085746</v>
       </c>
       <c r="E8">
         <v>8.397778748819839</v>
@@ -609,7 +606,7 @@
         <v>10.46497033843103</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.176302247599672</v>
+        <v>0.7810903848870433</v>
       </c>
       <c r="D9">
-        <v>0.2396408673153196</v>
+        <v>0.4430739304220652</v>
       </c>
       <c r="E9">
         <v>9.219767490330902</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.537454117117681</v>
+        <v>-1.560469513570037</v>
       </c>
       <c r="D10">
-        <v>0.124370562409293</v>
+        <v>0.1329197865475928</v>
       </c>
       <c r="E10">
         <v>9.219767490330902</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.44379019078689</v>
+        <v>-2.003904972693956</v>
       </c>
       <c r="D11">
-        <v>0.01463620057462101</v>
+        <v>0.05754613733241176</v>
       </c>
       <c r="E11">
         <v>8.267570245745368</v>
@@ -687,7 +684,7 @@
         <v>10.46497033843103</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
